--- a/Wheat 2021/phylum.xlsx
+++ b/Wheat 2021/phylum.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mothur\Wheat 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kentp\Documents\GitHub\Rhizosphere-sequencing\Wheat 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6478A68-F83E-4207-B40B-2F76A1181E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AE0EF2-6EBB-4917-93AC-A927074140EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,24 +45,6 @@
     <t>KS 6</t>
   </si>
   <si>
-    <t>ST 1</t>
-  </si>
-  <si>
-    <t>ST 2</t>
-  </si>
-  <si>
-    <t>ST 3</t>
-  </si>
-  <si>
-    <t>ST 4</t>
-  </si>
-  <si>
-    <t>ST 5</t>
-  </si>
-  <si>
-    <t>ST 6</t>
-  </si>
-  <si>
     <t>Proteobacteria</t>
   </si>
   <si>
@@ -93,9 +75,6 @@
     <t>Gemmatimonadetes</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -103,6 +82,27 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>UK 1</t>
+  </si>
+  <si>
+    <t>UK 2</t>
+  </si>
+  <si>
+    <t>UK 3</t>
+  </si>
+  <si>
+    <t>UK 4</t>
+  </si>
+  <si>
+    <t>UK 5</t>
+  </si>
+  <si>
+    <t>UK 6</t>
+  </si>
+  <si>
+    <t>Other Phyla</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -433,13 +433,13 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>5609</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>7038.2</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5552</v>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4772.2</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>3197.4</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>3747.4</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>998.8</v>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1671.4</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>686.2</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>471.2</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>839.4</v>
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>6147.6</v>
@@ -589,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>6466</v>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>5096.6000000000004</v>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>4725.6000000000004</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>3567.4</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>3434</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>1124.5999999999999</v>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>1820.2</v>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>654</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>434.2</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>687</v>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>5101</v>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>7206.666666666667</v>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>5352</v>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>3916.6666666666665</v>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>3842.3333333333335</v>
@@ -754,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>4212</v>
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>706.33333333333337</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>2247.6666666666665</v>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C32">
         <v>664.66666666666663</v>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>357.66666666666669</v>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>726</v>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>6464.25</v>
@@ -831,7 +831,7 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <v>6546</v>
@@ -842,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>4840.75</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>5197.25</v>
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>3482.75</v>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>3496</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>1361.5</v>
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>1540.5</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>541.5</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>405.75</v>
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C45">
         <v>865.75</v>
@@ -941,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>7866.5</v>
@@ -952,7 +952,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>5700.75</v>
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>5157.75</v>
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>5008.75</v>
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>3125</v>
@@ -996,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>2513.25</v>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>1702.75</v>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>1150.75</v>
@@ -1029,7 +1029,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>662.5</v>
@@ -1040,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>513.25</v>
@@ -1051,7 +1051,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C56">
         <v>708</v>
@@ -1062,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>6204.8</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C58">
         <v>6494.8</v>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>5128.8</v>
@@ -1095,7 +1095,7 @@
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>4006.6</v>
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>3947.4</v>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <v>3734.8</v>
@@ -1128,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>1098.8</v>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C64">
         <v>1762.6</v>
@@ -1150,7 +1150,7 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>698.2</v>
@@ -1161,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C66">
         <v>333.2</v>
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>759.6</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C68">
         <v>8311.4</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C69">
         <v>5652.2</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>5759.2</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <v>5375.6</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>2854.4</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>2357.8000000000002</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C74">
         <v>2075</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C75">
         <v>786.2</v>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>814.4</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>592.79999999999995</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>748.8</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>7203.25</v>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C80">
         <v>5998.25</v>
@@ -1323,10 +1323,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>6526.5</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C82">
         <v>4122.25</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C83">
         <v>3240.75</v>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <v>2171</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>2071.5</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C86">
         <v>836</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C87">
         <v>986.5</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C88">
         <v>620.5</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C89">
         <v>715.75</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>8153.5</v>
@@ -1433,10 +1433,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C91">
         <v>6043</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C92">
         <v>5614.75</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>3889.5</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>3111.25</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>1951</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C96">
         <v>2716.25</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C97">
         <v>617</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C98">
         <v>874.5</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C99">
         <v>694.5</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C100">
         <v>728</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C101">
         <v>7810.333333333333</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>6146.333333333333</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C103">
         <v>6151.666666666667</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C104">
         <v>4833.666666666667</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C105">
         <v>2792.3333333333335</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C106">
         <v>2415.6666666666665</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C107">
         <v>2002.3333333333333</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>778.33333333333337</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C109">
         <v>1041.3333333333333</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C110">
         <v>553</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C111">
         <v>700</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <v>7908.25</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C113">
         <v>6023</v>
@@ -1686,10 +1686,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C114">
         <v>5788.25</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C115">
         <v>4350.75</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C116">
         <v>2941.75</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C117">
         <v>2184.75</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C118">
         <v>2337.75</v>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C119">
         <v>793</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C120">
         <v>913.75</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C121">
         <v>633.75</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C122">
         <v>748.5</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C123">
         <v>8647.7999999999993</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C124">
         <v>5352</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C125">
         <v>5573.2</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>5194.6000000000004</v>
@@ -1829,10 +1829,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C127">
         <v>2936.8</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C128">
         <v>2313.8000000000002</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C129">
         <v>2174</v>
@@ -1862,10 +1862,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C130">
         <v>691.4</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C131">
         <v>796.8</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C132">
         <v>535.20000000000005</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C133">
         <v>872.8</v>
